--- a/data/pca/factorExposure/factorExposure_2010-06-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-18.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01501015888539134</v>
+        <v>-0.01661413082801738</v>
       </c>
       <c r="C2">
-        <v>-0.004146978634669281</v>
+        <v>-0.000860377207345764</v>
       </c>
       <c r="D2">
-        <v>0.01091056557761978</v>
+        <v>0.008482105690191878</v>
       </c>
       <c r="E2">
-        <v>-0.000921784705364834</v>
+        <v>-0.00263234884238758</v>
       </c>
       <c r="F2">
-        <v>0.02887104928781141</v>
+        <v>0.01366643909978886</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1242198882530694</v>
+        <v>-0.09576818868241915</v>
       </c>
       <c r="C4">
-        <v>-0.103056240437925</v>
+        <v>-0.01785177856248031</v>
       </c>
       <c r="D4">
-        <v>-0.00566147998763932</v>
+        <v>0.08161427567358923</v>
       </c>
       <c r="E4">
-        <v>-0.1763768086358745</v>
+        <v>0.02704373703384026</v>
       </c>
       <c r="F4">
-        <v>0.005271566641108261</v>
+        <v>-0.03945958478962443</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1294870561455926</v>
+        <v>-0.1519681528796286</v>
       </c>
       <c r="C6">
-        <v>-0.06649460372753613</v>
+        <v>-0.0243845069506832</v>
       </c>
       <c r="D6">
-        <v>-0.001657915635963247</v>
+        <v>-0.02388587134419838</v>
       </c>
       <c r="E6">
-        <v>-0.05583154201567075</v>
+        <v>0.01423065838113969</v>
       </c>
       <c r="F6">
-        <v>-0.04426996501363092</v>
+        <v>-0.03852561972471161</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07570017690633116</v>
+        <v>-0.0620762346732858</v>
       </c>
       <c r="C7">
-        <v>-0.07858794102269016</v>
+        <v>-0.0003196205777744131</v>
       </c>
       <c r="D7">
-        <v>0.0111559685833969</v>
+        <v>0.05136862749613055</v>
       </c>
       <c r="E7">
-        <v>-0.01345398099325344</v>
+        <v>0.01351926795988168</v>
       </c>
       <c r="F7">
-        <v>-0.007880186206796922</v>
+        <v>-0.05884844964651888</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04366480960890669</v>
+        <v>-0.05981679057840407</v>
       </c>
       <c r="C8">
-        <v>-0.007320879850452081</v>
+        <v>0.0125331947880151</v>
       </c>
       <c r="D8">
-        <v>0.006570444551080627</v>
+        <v>0.0269646975584731</v>
       </c>
       <c r="E8">
-        <v>-0.1170862811556314</v>
+        <v>0.0117153262213829</v>
       </c>
       <c r="F8">
-        <v>0.01744495663666037</v>
+        <v>0.02138355541691918</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08713825849079183</v>
+        <v>-0.0729506652843693</v>
       </c>
       <c r="C9">
-        <v>-0.08008093428552751</v>
+        <v>-0.01426836116657051</v>
       </c>
       <c r="D9">
-        <v>-0.02268192684041195</v>
+        <v>0.079557209904858</v>
       </c>
       <c r="E9">
-        <v>-0.1432507355162227</v>
+        <v>0.02092801708217265</v>
       </c>
       <c r="F9">
-        <v>0.01132369575812926</v>
+        <v>-0.06197474153621492</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.138241276356815</v>
+        <v>-0.0921596093445306</v>
       </c>
       <c r="C10">
-        <v>0.1737810372435462</v>
+        <v>-0.01372055140562721</v>
       </c>
       <c r="D10">
-        <v>0.003083505281972531</v>
+        <v>-0.1726923832693641</v>
       </c>
       <c r="E10">
-        <v>0.03073883458501137</v>
+        <v>-0.03606766284974518</v>
       </c>
       <c r="F10">
-        <v>-0.0116560480197802</v>
+        <v>0.05019478811777732</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06731502104820096</v>
+        <v>-0.08869142697446278</v>
       </c>
       <c r="C11">
-        <v>-0.06206986318097593</v>
+        <v>-0.01347565869324722</v>
       </c>
       <c r="D11">
-        <v>-0.04595165797674249</v>
+        <v>0.1105884396736544</v>
       </c>
       <c r="E11">
-        <v>-0.1028487516902524</v>
+        <v>0.04201797318711656</v>
       </c>
       <c r="F11">
-        <v>0.01502433509042052</v>
+        <v>-0.02785737933425889</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07142435048874998</v>
+        <v>-0.09372456053458303</v>
       </c>
       <c r="C12">
-        <v>-0.06895571557097772</v>
+        <v>-0.01147077771514421</v>
       </c>
       <c r="D12">
-        <v>-0.05394981309504453</v>
+        <v>0.1167597113770711</v>
       </c>
       <c r="E12">
-        <v>-0.1071566678719025</v>
+        <v>0.03985144839151283</v>
       </c>
       <c r="F12">
-        <v>-0.0296574798936652</v>
+        <v>-0.0302892578442798</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03762607735226081</v>
+        <v>-0.04408521597845329</v>
       </c>
       <c r="C13">
-        <v>-0.04070999855163453</v>
+        <v>-0.004998710064552555</v>
       </c>
       <c r="D13">
-        <v>0.02513834575323644</v>
+        <v>0.04342431697496311</v>
       </c>
       <c r="E13">
-        <v>-0.03982080314902071</v>
+        <v>-0.01438064173503627</v>
       </c>
       <c r="F13">
-        <v>0.008454546656834894</v>
+        <v>-0.02053599710973954</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03870460549300531</v>
+        <v>-0.02214259120992477</v>
       </c>
       <c r="C14">
-        <v>-0.03533084507045833</v>
+        <v>-0.01518063385499663</v>
       </c>
       <c r="D14">
-        <v>-0.01520144273292259</v>
+        <v>0.02973194434049779</v>
       </c>
       <c r="E14">
-        <v>-0.06405782460607633</v>
+        <v>0.01498817799578206</v>
       </c>
       <c r="F14">
-        <v>-0.006666937637379482</v>
+        <v>-0.02785158138009484</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02413598466666656</v>
+        <v>-0.03268553821201258</v>
       </c>
       <c r="C15">
-        <v>-0.01467055270556675</v>
+        <v>-0.006198237496442253</v>
       </c>
       <c r="D15">
-        <v>0.06858519989424192</v>
+        <v>0.04150396186239601</v>
       </c>
       <c r="E15">
-        <v>-0.02236622021993328</v>
+        <v>0.007411971140245854</v>
       </c>
       <c r="F15">
-        <v>0.02257680082128456</v>
+        <v>-0.0348383139461909</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07874979998277061</v>
+        <v>-0.07556302369642429</v>
       </c>
       <c r="C16">
-        <v>-0.07752798953971163</v>
+        <v>-0.005285572700492407</v>
       </c>
       <c r="D16">
-        <v>-0.04095928747185958</v>
+        <v>0.1148718986324897</v>
       </c>
       <c r="E16">
-        <v>-0.09571177757529092</v>
+        <v>0.05704354734041598</v>
       </c>
       <c r="F16">
-        <v>-0.01713507604277313</v>
+        <v>-0.03628668609895041</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01985804070943759</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003939351873961249</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02365017723926394</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01168958751844247</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.0294421265916404</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04773190564701259</v>
+        <v>-0.06176771689740443</v>
       </c>
       <c r="C20">
-        <v>-0.0238976003333768</v>
+        <v>-0.002946763265707537</v>
       </c>
       <c r="D20">
-        <v>0.03208362012659227</v>
+        <v>0.06865870712601066</v>
       </c>
       <c r="E20">
-        <v>-0.07478196550599939</v>
+        <v>0.05047330122205417</v>
       </c>
       <c r="F20">
-        <v>-0.01875988695207252</v>
+        <v>-0.03229709373715419</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03396920975936072</v>
+        <v>-0.03845228534121956</v>
       </c>
       <c r="C21">
-        <v>-0.02534247877756463</v>
+        <v>-0.008021975093532514</v>
       </c>
       <c r="D21">
-        <v>-0.02017745877055609</v>
+        <v>0.03411360327349622</v>
       </c>
       <c r="E21">
-        <v>-0.07359742467607763</v>
+        <v>-0.01324885177197666</v>
       </c>
       <c r="F21">
-        <v>0.01816345276258786</v>
+        <v>0.01889494781224667</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05532527249868627</v>
+        <v>-0.04254353651937962</v>
       </c>
       <c r="C22">
-        <v>-0.002082551472417422</v>
+        <v>-0.001039834112566528</v>
       </c>
       <c r="D22">
-        <v>0.6478716647159145</v>
+        <v>-0.001126382229979183</v>
       </c>
       <c r="E22">
-        <v>0.01050745928050569</v>
+        <v>0.03202394035127405</v>
       </c>
       <c r="F22">
-        <v>-0.1130954625925898</v>
+        <v>0.02307190552975191</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05631245883134472</v>
+        <v>-0.04263673495468312</v>
       </c>
       <c r="C23">
-        <v>-0.003895376128486268</v>
+        <v>-0.001074380878340926</v>
       </c>
       <c r="D23">
-        <v>0.6501803495492502</v>
+        <v>-0.0009145296369775851</v>
       </c>
       <c r="E23">
-        <v>0.005000534785775473</v>
+        <v>0.03244568119441579</v>
       </c>
       <c r="F23">
-        <v>-0.1138846433114622</v>
+        <v>0.02252624449341951</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07833463475275973</v>
+        <v>-0.08203554924032866</v>
       </c>
       <c r="C24">
-        <v>-0.07710925470128197</v>
+        <v>-0.005460864572539432</v>
       </c>
       <c r="D24">
-        <v>-0.03289530904040364</v>
+        <v>0.1151870720036139</v>
       </c>
       <c r="E24">
-        <v>-0.1018774458871032</v>
+        <v>0.04558745178144991</v>
       </c>
       <c r="F24">
-        <v>-0.00584994574553315</v>
+        <v>-0.02851381744688202</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07788373819789396</v>
+        <v>-0.08616648142570214</v>
       </c>
       <c r="C25">
-        <v>-0.05935811449837172</v>
+        <v>-0.007408479418190666</v>
       </c>
       <c r="D25">
-        <v>-0.05868371233970106</v>
+        <v>0.1006321632990448</v>
       </c>
       <c r="E25">
-        <v>-0.1062125895571139</v>
+        <v>0.02773394081338931</v>
       </c>
       <c r="F25">
-        <v>-0.007178063307600011</v>
+        <v>-0.03860657602239926</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04069957771469188</v>
+        <v>-0.05649667000289039</v>
       </c>
       <c r="C26">
-        <v>-0.01105753035037878</v>
+        <v>-0.01583692026472827</v>
       </c>
       <c r="D26">
-        <v>0.01458415538606392</v>
+        <v>0.03169492224254759</v>
       </c>
       <c r="E26">
-        <v>-0.05962908032863621</v>
+        <v>0.0227165588090375</v>
       </c>
       <c r="F26">
-        <v>-0.06978306661346101</v>
+        <v>0.001262963374639264</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1602004821747676</v>
+        <v>-0.1382790854893617</v>
       </c>
       <c r="C28">
-        <v>0.2676028781115261</v>
+        <v>-0.01065914851644514</v>
       </c>
       <c r="D28">
-        <v>-0.01916837874857435</v>
+        <v>-0.2725668894429094</v>
       </c>
       <c r="E28">
-        <v>-0.02980372151931399</v>
+        <v>-0.06690978165945108</v>
       </c>
       <c r="F28">
-        <v>-0.009626737750495997</v>
+        <v>-0.04495783369300537</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03680261142121431</v>
+        <v>-0.02735137394647648</v>
       </c>
       <c r="C29">
-        <v>-0.03429435500605193</v>
+        <v>-0.009354031750863492</v>
       </c>
       <c r="D29">
-        <v>-0.01593354283528621</v>
+        <v>0.02872074366408548</v>
       </c>
       <c r="E29">
-        <v>-0.06159459778316833</v>
+        <v>0.007852680647724373</v>
       </c>
       <c r="F29">
-        <v>0.002009875471290079</v>
+        <v>0.004916688336827262</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08174470003316132</v>
+        <v>-0.06488566508585752</v>
       </c>
       <c r="C30">
-        <v>-0.06770973338129298</v>
+        <v>-0.007208513575733247</v>
       </c>
       <c r="D30">
-        <v>-0.02023073728395127</v>
+        <v>0.07713032672404906</v>
       </c>
       <c r="E30">
-        <v>-0.190165727416305</v>
+        <v>0.02176266542017572</v>
       </c>
       <c r="F30">
-        <v>-0.1370208729853934</v>
+        <v>-0.1236211271119746</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02746753873353044</v>
+        <v>-0.04887500635216661</v>
       </c>
       <c r="C31">
-        <v>-0.05813691883173247</v>
+        <v>-0.01538012611792482</v>
       </c>
       <c r="D31">
-        <v>0.003285787717324649</v>
+        <v>0.02886639662847141</v>
       </c>
       <c r="E31">
-        <v>-0.04356490969514726</v>
+        <v>0.02612697911504648</v>
       </c>
       <c r="F31">
-        <v>0.005271876520026011</v>
+        <v>0.002649584074808532</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05063122487355112</v>
+        <v>-0.0493973493825724</v>
       </c>
       <c r="C32">
-        <v>-0.01609526561956253</v>
+        <v>-0.00109754596852659</v>
       </c>
       <c r="D32">
-        <v>-0.05023224285960483</v>
+        <v>0.02723911478286469</v>
       </c>
       <c r="E32">
-        <v>-0.0524870493205563</v>
+        <v>0.02511888365311367</v>
       </c>
       <c r="F32">
-        <v>0.07087353269890652</v>
+        <v>-0.004544180856696428</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0960025236168076</v>
+        <v>-0.09220508175764296</v>
       </c>
       <c r="C33">
-        <v>-0.07913147549156636</v>
+        <v>-0.0105662496935934</v>
       </c>
       <c r="D33">
-        <v>-0.02186698627084389</v>
+        <v>0.08994005807346898</v>
       </c>
       <c r="E33">
-        <v>-0.05777118182323593</v>
+        <v>0.04410755475529379</v>
       </c>
       <c r="F33">
-        <v>-0.02481547546284405</v>
+        <v>-0.04415924544199757</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06759093552958666</v>
+        <v>-0.06925303332576831</v>
       </c>
       <c r="C34">
-        <v>-0.05373023544842263</v>
+        <v>-0.01328879377559736</v>
       </c>
       <c r="D34">
-        <v>-0.04527296977027027</v>
+        <v>0.0948656850191967</v>
       </c>
       <c r="E34">
-        <v>-0.09685213905822891</v>
+        <v>0.02821812718807184</v>
       </c>
       <c r="F34">
-        <v>-0.004096429312497243</v>
+        <v>-0.05366766356276995</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.0172776131472439</v>
+        <v>-0.02441146471721372</v>
       </c>
       <c r="C35">
-        <v>-0.01311823840517247</v>
+        <v>-0.002689232191767126</v>
       </c>
       <c r="D35">
-        <v>0.0007673970385558872</v>
+        <v>0.009877181428223957</v>
       </c>
       <c r="E35">
-        <v>-0.0349879026656309</v>
+        <v>0.01117702935476403</v>
       </c>
       <c r="F35">
-        <v>0.000303415010576507</v>
+        <v>-0.01208959983787638</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02556627542783841</v>
+        <v>-0.02523324300675713</v>
       </c>
       <c r="C36">
-        <v>-0.02007763644501755</v>
+        <v>-0.007383926725832034</v>
       </c>
       <c r="D36">
-        <v>0.0139091225480894</v>
+        <v>0.03784530598343905</v>
       </c>
       <c r="E36">
-        <v>-0.0806967494731437</v>
+        <v>0.01512878007944708</v>
       </c>
       <c r="F36">
-        <v>-0.02459414733564236</v>
+        <v>-0.01011870070134471</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02225149065770126</v>
+        <v>-0.002885624382868465</v>
       </c>
       <c r="C38">
-        <v>-0.04992077259240479</v>
+        <v>-0.0005352302743423955</v>
       </c>
       <c r="D38">
-        <v>0.02626927274087246</v>
+        <v>0.003039359735818533</v>
       </c>
       <c r="E38">
-        <v>0.1224306860303967</v>
+        <v>0.003906780780338883</v>
       </c>
       <c r="F38">
-        <v>-0.05901311530158669</v>
+        <v>0.003092488648568215</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09811929910680904</v>
+        <v>-0.1113870534444775</v>
       </c>
       <c r="C39">
-        <v>-0.09178785316263062</v>
+        <v>-0.01933129318793646</v>
       </c>
       <c r="D39">
-        <v>-0.1323059306505437</v>
+        <v>0.1463423523778971</v>
       </c>
       <c r="E39">
-        <v>-0.1253409599492916</v>
+        <v>0.05141746600737076</v>
       </c>
       <c r="F39">
-        <v>-0.1314510629894077</v>
+        <v>-0.04206492364782385</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02944919880355099</v>
+        <v>-0.037535727320372</v>
       </c>
       <c r="C40">
-        <v>-0.06747755901026467</v>
+        <v>-0.007788861481248036</v>
       </c>
       <c r="D40">
-        <v>0.02974562071556599</v>
+        <v>0.02896991211656662</v>
       </c>
       <c r="E40">
-        <v>-0.05636356654266939</v>
+        <v>0.001431922598610132</v>
       </c>
       <c r="F40">
-        <v>0.08235231210070659</v>
+        <v>0.01788719596491246</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03466193022661131</v>
+        <v>-0.02646646510974062</v>
       </c>
       <c r="C41">
-        <v>-0.02493889786488719</v>
+        <v>-0.00685289293270061</v>
       </c>
       <c r="D41">
-        <v>-0.01868214905712577</v>
+        <v>0.01109263981277613</v>
       </c>
       <c r="E41">
-        <v>-5.055933794398166e-05</v>
+        <v>0.01106755214043551</v>
       </c>
       <c r="F41">
-        <v>-0.02038388235783581</v>
+        <v>0.01244477615220081</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04733360832273228</v>
+        <v>-0.04303441460382549</v>
       </c>
       <c r="C43">
-        <v>-0.04581780746238733</v>
+        <v>-0.007253997073085265</v>
       </c>
       <c r="D43">
-        <v>0.008809887765544236</v>
+        <v>0.02122254871759507</v>
       </c>
       <c r="E43">
-        <v>-0.01180734405916621</v>
+        <v>0.02604312381666601</v>
       </c>
       <c r="F43">
-        <v>-0.06184685699033731</v>
+        <v>0.01121087684471758</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09406967273988914</v>
+        <v>-0.07361199563411838</v>
       </c>
       <c r="C44">
-        <v>-0.08966257268606739</v>
+        <v>-0.02316727940257222</v>
       </c>
       <c r="D44">
-        <v>0.08211834405596806</v>
+        <v>0.09950456252427325</v>
       </c>
       <c r="E44">
-        <v>-0.1095526346257061</v>
+        <v>0.06700540962826743</v>
       </c>
       <c r="F44">
-        <v>0.05195629375231241</v>
+        <v>-0.182211498424363</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03985284665765414</v>
+        <v>-0.02372033386305807</v>
       </c>
       <c r="C46">
-        <v>-0.03605945009570685</v>
+        <v>-0.004347676037155783</v>
       </c>
       <c r="D46">
-        <v>0.0423072944668072</v>
+        <v>0.01209059928152828</v>
       </c>
       <c r="E46">
-        <v>-0.0522757469909871</v>
+        <v>0.02171820692052068</v>
       </c>
       <c r="F46">
-        <v>0.02748323051736799</v>
+        <v>0.001525902390499105</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05355764007794605</v>
+        <v>-0.0531147596605081</v>
       </c>
       <c r="C47">
-        <v>-0.04812026587122899</v>
+        <v>-0.003577036136363385</v>
       </c>
       <c r="D47">
-        <v>-0.0004402499074620081</v>
+        <v>0.01223138558441548</v>
       </c>
       <c r="E47">
-        <v>-0.01580839489093897</v>
+        <v>0.02263978416059824</v>
       </c>
       <c r="F47">
-        <v>-0.02092153391277466</v>
+        <v>0.04741842875150223</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04505745418017272</v>
+        <v>-0.04829575633127393</v>
       </c>
       <c r="C48">
-        <v>-0.01695554233091157</v>
+        <v>-0.003575885061297222</v>
       </c>
       <c r="D48">
-        <v>-0.01357801614535138</v>
+        <v>0.04461566116901663</v>
       </c>
       <c r="E48">
-        <v>-0.09466494429420699</v>
+        <v>-0.009057891152217289</v>
       </c>
       <c r="F48">
-        <v>0.01820073117796235</v>
+        <v>-0.01795424582187826</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2309055167334218</v>
+        <v>-0.2050569161211466</v>
       </c>
       <c r="C49">
-        <v>-0.04009607059626381</v>
+        <v>-0.01662146303907362</v>
       </c>
       <c r="D49">
-        <v>-0.02801694680003003</v>
+        <v>-0.0089280762951124</v>
       </c>
       <c r="E49">
-        <v>0.3081981128194389</v>
+        <v>0.04280852522502666</v>
       </c>
       <c r="F49">
-        <v>0.05228649316144421</v>
+        <v>-0.03299534765075928</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03698483830440186</v>
+        <v>-0.04870641632000235</v>
       </c>
       <c r="C50">
-        <v>-0.04913727405302336</v>
+        <v>-0.01141492827214241</v>
       </c>
       <c r="D50">
-        <v>-0.01230275171592906</v>
+        <v>0.0259913758360215</v>
       </c>
       <c r="E50">
-        <v>-0.05585198561495327</v>
+        <v>0.02867930175254641</v>
       </c>
       <c r="F50">
-        <v>-0.03353919020689389</v>
+        <v>-0.006749243556157287</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02792775576305994</v>
+        <v>-0.003319434854056876</v>
       </c>
       <c r="C51">
-        <v>-0.003389367474851739</v>
+        <v>-0.0007878089497415111</v>
       </c>
       <c r="D51">
-        <v>-0.0005199546653085422</v>
+        <v>-0.001464756815018829</v>
       </c>
       <c r="E51">
-        <v>0.0451441779842591</v>
+        <v>0.001431103032131921</v>
       </c>
       <c r="F51">
-        <v>0.02071057527962088</v>
+        <v>-0.004632883914382283</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03611616969194582</v>
+        <v>-0.1419613690045699</v>
       </c>
       <c r="C52">
-        <v>-0.02017264727495668</v>
+        <v>-0.01282751989173394</v>
       </c>
       <c r="D52">
-        <v>-0.02477743357301927</v>
+        <v>0.04979788966243218</v>
       </c>
       <c r="E52">
-        <v>-0.007433451342529107</v>
+        <v>0.01737452870994129</v>
       </c>
       <c r="F52">
-        <v>-0.02492179607395142</v>
+        <v>-0.03083631507198149</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1482167542830587</v>
+        <v>-0.1729240282636883</v>
       </c>
       <c r="C53">
-        <v>-0.06415488727813272</v>
+        <v>-0.01563518029239381</v>
       </c>
       <c r="D53">
-        <v>0.0180370249233997</v>
+        <v>0.01615097402129406</v>
       </c>
       <c r="E53">
-        <v>0.08203864516204741</v>
+        <v>0.03856453691011284</v>
       </c>
       <c r="F53">
-        <v>-0.07180834383872099</v>
+        <v>-0.0587232437806813</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06182380032935201</v>
+        <v>-0.02343453449257885</v>
       </c>
       <c r="C54">
-        <v>-0.0446561371598819</v>
+        <v>-0.01316611351663679</v>
       </c>
       <c r="D54">
-        <v>0.001050343540114468</v>
+        <v>0.03143845645847781</v>
       </c>
       <c r="E54">
-        <v>-0.1444766749857127</v>
+        <v>0.01303783508154579</v>
       </c>
       <c r="F54">
-        <v>0.01464665370561936</v>
+        <v>0.0008672551842879443</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08416947040039868</v>
+        <v>-0.1143017118976304</v>
       </c>
       <c r="C55">
-        <v>-0.05824031023467083</v>
+        <v>-0.01457580501900434</v>
       </c>
       <c r="D55">
-        <v>-0.03413661194433196</v>
+        <v>0.01423245776660348</v>
       </c>
       <c r="E55">
-        <v>0.01684136492063449</v>
+        <v>0.03066259161690163</v>
       </c>
       <c r="F55">
-        <v>-0.02465019331234344</v>
+        <v>-0.0459137962750637</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1414958384790334</v>
+        <v>-0.1774314685709216</v>
       </c>
       <c r="C56">
-        <v>-0.1028238489788635</v>
+        <v>-0.01300709245846533</v>
       </c>
       <c r="D56">
-        <v>-0.01859639046455897</v>
+        <v>0.01092479118089146</v>
       </c>
       <c r="E56">
-        <v>0.0495326227123301</v>
+        <v>0.04371195769104121</v>
       </c>
       <c r="F56">
-        <v>-0.05171809521785112</v>
+        <v>-0.02918211981929345</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03952855184422986</v>
+        <v>-0.04744313551420586</v>
       </c>
       <c r="C58">
-        <v>-0.02849846670255071</v>
+        <v>-0.003471178718627271</v>
       </c>
       <c r="D58">
-        <v>0.03786453105575643</v>
+        <v>0.06151859242886995</v>
       </c>
       <c r="E58">
-        <v>-0.03597224111662547</v>
+        <v>0.01588405916428691</v>
       </c>
       <c r="F58">
-        <v>0.005311785180525877</v>
+        <v>0.04386801544449258</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2180629781594384</v>
+        <v>-0.1692458817930386</v>
       </c>
       <c r="C59">
-        <v>0.2296641598813283</v>
+        <v>-0.01239711602856227</v>
       </c>
       <c r="D59">
-        <v>-0.05463642185376501</v>
+        <v>-0.2315358957159482</v>
       </c>
       <c r="E59">
-        <v>-0.005214294679513455</v>
+        <v>-0.04753346531042053</v>
       </c>
       <c r="F59">
-        <v>0.0423975808205812</v>
+        <v>0.03008212511751586</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2250378480022804</v>
+        <v>-0.2395908763026925</v>
       </c>
       <c r="C60">
-        <v>-0.1462671987067711</v>
+        <v>0.004297796727200665</v>
       </c>
       <c r="D60">
-        <v>-0.0643195013839047</v>
+        <v>0.0509058171166511</v>
       </c>
       <c r="E60">
-        <v>0.1146449390023655</v>
+        <v>0.01274023425461191</v>
       </c>
       <c r="F60">
-        <v>0.05073619113089984</v>
+        <v>0.044251282382131</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0975119357751093</v>
+        <v>-0.08629449227083351</v>
       </c>
       <c r="C61">
-        <v>-0.07990996608206959</v>
+        <v>-0.01514011243112601</v>
       </c>
       <c r="D61">
-        <v>-0.07716344512748938</v>
+        <v>0.1076503589566863</v>
       </c>
       <c r="E61">
-        <v>-0.1271567456502477</v>
+        <v>0.03408811139989171</v>
       </c>
       <c r="F61">
-        <v>-0.05485827056813364</v>
+        <v>-0.02602912712031893</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1315105987637152</v>
+        <v>-0.1689855046885962</v>
       </c>
       <c r="C62">
-        <v>-0.07332396176142257</v>
+        <v>-0.0170322962389381</v>
       </c>
       <c r="D62">
-        <v>0.003587579588142887</v>
+        <v>0.01281221019868578</v>
       </c>
       <c r="E62">
-        <v>0.08304418034593614</v>
+        <v>0.03935092642762184</v>
       </c>
       <c r="F62">
-        <v>-0.03789819231467735</v>
+        <v>-0.0109943822025104</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04928079393588803</v>
+        <v>-0.04240898617325106</v>
       </c>
       <c r="C63">
-        <v>-0.02463359662278002</v>
+        <v>-0.004403484041050185</v>
       </c>
       <c r="D63">
-        <v>-0.01090852071563307</v>
+        <v>0.04648644088020836</v>
       </c>
       <c r="E63">
-        <v>-0.07292963598278493</v>
+        <v>0.0143689026325953</v>
       </c>
       <c r="F63">
-        <v>-0.02617518859089625</v>
+        <v>-0.01210278703828909</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.0918972672839249</v>
+        <v>-0.1119459718085626</v>
       </c>
       <c r="C64">
-        <v>-0.0576628770002466</v>
+        <v>-0.01207856008056641</v>
       </c>
       <c r="D64">
-        <v>0.002404613196173525</v>
+        <v>0.03870961663703486</v>
       </c>
       <c r="E64">
-        <v>-0.05961327768442803</v>
+        <v>0.01932056495881658</v>
       </c>
       <c r="F64">
-        <v>-0.03081484176131571</v>
+        <v>-0.01800304171052433</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.117694069708009</v>
+        <v>-0.1435327060947285</v>
       </c>
       <c r="C65">
-        <v>-0.04391795797372097</v>
+        <v>-0.03067350997213026</v>
       </c>
       <c r="D65">
-        <v>-0.01545479086152274</v>
+        <v>-0.04608362925684382</v>
       </c>
       <c r="E65">
-        <v>-0.05956561540988214</v>
+        <v>0.002816063763851857</v>
       </c>
       <c r="F65">
-        <v>-0.08092636346596581</v>
+        <v>-0.04134135456753832</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1084960930936867</v>
+        <v>-0.133560252670783</v>
       </c>
       <c r="C66">
-        <v>-0.1203368756372156</v>
+        <v>-0.01687137511747728</v>
       </c>
       <c r="D66">
-        <v>-0.1170223892097019</v>
+        <v>0.1336935621436076</v>
       </c>
       <c r="E66">
-        <v>-0.08984847033151495</v>
+        <v>0.06037762889033125</v>
       </c>
       <c r="F66">
-        <v>-0.1283043162975688</v>
+        <v>-0.04632660092499059</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.07725396052662485</v>
+        <v>-0.06511249010182428</v>
       </c>
       <c r="C67">
-        <v>-0.06123541247875776</v>
+        <v>-0.004347278224206929</v>
       </c>
       <c r="D67">
-        <v>0.03498850828779457</v>
+        <v>0.05381850949293334</v>
       </c>
       <c r="E67">
-        <v>0.1307339123177307</v>
+        <v>0.02078319154355968</v>
       </c>
       <c r="F67">
-        <v>-0.08574708195160823</v>
+        <v>0.04247713212505717</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1359733134220917</v>
+        <v>-0.1112783867842312</v>
       </c>
       <c r="C68">
-        <v>0.2630309541577824</v>
+        <v>-0.02164705806608978</v>
       </c>
       <c r="D68">
-        <v>-0.02770885824233196</v>
+        <v>-0.2702439957994193</v>
       </c>
       <c r="E68">
-        <v>-0.05660027994078097</v>
+        <v>-0.08679981262392568</v>
       </c>
       <c r="F68">
-        <v>-0.02304582569283289</v>
+        <v>-0.04997301772847244</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04542814888378794</v>
+        <v>-0.04065695702660053</v>
       </c>
       <c r="C69">
-        <v>-0.01704492264550785</v>
+        <v>-0.001393282649458949</v>
       </c>
       <c r="D69">
-        <v>0.002703525662292356</v>
+        <v>0.008468258616973425</v>
       </c>
       <c r="E69">
-        <v>0.0002638073066004496</v>
+        <v>0.02623598232888436</v>
       </c>
       <c r="F69">
-        <v>-0.03382800838723211</v>
+        <v>0.01689763875296622</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05025214634901611</v>
+        <v>-0.06494975299029364</v>
       </c>
       <c r="C70">
-        <v>-0.06660777330933891</v>
+        <v>0.02669905768898866</v>
       </c>
       <c r="D70">
-        <v>-0.02625358833818738</v>
+        <v>0.02335166738603196</v>
       </c>
       <c r="E70">
-        <v>-0.0322754372228557</v>
+        <v>-0.04578576792891895</v>
       </c>
       <c r="F70">
-        <v>-0.01614241384223331</v>
+        <v>0.3433430800825218</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1535090132244846</v>
+        <v>-0.1302598166999137</v>
       </c>
       <c r="C71">
-        <v>0.2739599659431303</v>
+        <v>-0.02555700466283733</v>
       </c>
       <c r="D71">
-        <v>-0.02436988916833291</v>
+        <v>-0.286998008642196</v>
       </c>
       <c r="E71">
-        <v>-0.0572802114660314</v>
+        <v>-0.09409662647649518</v>
       </c>
       <c r="F71">
-        <v>-0.04360282827229923</v>
+        <v>-0.05199344548707105</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1275420555066918</v>
+        <v>-0.1377735254928465</v>
       </c>
       <c r="C72">
-        <v>-0.02502742544821222</v>
+        <v>-0.02383834595215229</v>
       </c>
       <c r="D72">
-        <v>6.688927068571797e-05</v>
+        <v>0.007085530186666924</v>
       </c>
       <c r="E72">
-        <v>-0.02152128113283542</v>
+        <v>0.04222122230979446</v>
       </c>
       <c r="F72">
-        <v>-0.05997542296024692</v>
+        <v>-0.02373159806095637</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2198099635494354</v>
+        <v>-0.2079242490463097</v>
       </c>
       <c r="C73">
-        <v>-0.1024946906525321</v>
+        <v>-0.01126650183253606</v>
       </c>
       <c r="D73">
-        <v>-0.1170760313623446</v>
+        <v>0.01859401488439935</v>
       </c>
       <c r="E73">
-        <v>0.5371484393597783</v>
+        <v>0.06974270834794642</v>
       </c>
       <c r="F73">
-        <v>0.02668459002482509</v>
+        <v>-0.02464020831601953</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09224094350890692</v>
+        <v>-0.09372639735000923</v>
       </c>
       <c r="C74">
-        <v>-0.08761564295536077</v>
+        <v>-0.01189503738505823</v>
       </c>
       <c r="D74">
-        <v>-0.0009985841655416599</v>
+        <v>0.02518941381914681</v>
       </c>
       <c r="E74">
-        <v>0.06860576493621341</v>
+        <v>0.0505803496829041</v>
       </c>
       <c r="F74">
-        <v>-0.08438802302099094</v>
+        <v>-0.03981653504303785</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09203739173393595</v>
+        <v>-0.1302144823525919</v>
       </c>
       <c r="C75">
-        <v>-0.07208765555133381</v>
+        <v>-0.02627042474569924</v>
       </c>
       <c r="D75">
-        <v>-0.0017825968758102</v>
+        <v>0.03461326608126795</v>
       </c>
       <c r="E75">
-        <v>0.00799883711195715</v>
+        <v>0.06107389328445281</v>
       </c>
       <c r="F75">
-        <v>-0.01020515009438871</v>
+        <v>-0.008389704029872682</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.06144314128147435</v>
+        <v>-0.007611111661643573</v>
       </c>
       <c r="C76">
-        <v>-0.06878960218045829</v>
+        <v>-0.001700766241826435</v>
       </c>
       <c r="D76">
-        <v>0.006301332365143873</v>
+        <v>0.00306805455837452</v>
       </c>
       <c r="E76">
-        <v>0.05235886714864317</v>
+        <v>0.007779745210249195</v>
       </c>
       <c r="F76">
-        <v>-0.01065805435787204</v>
+        <v>-0.004007484975676507</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06454288192724431</v>
+        <v>-0.08106779399971772</v>
       </c>
       <c r="C77">
-        <v>-0.03146380677351187</v>
+        <v>-0.01177366201074945</v>
       </c>
       <c r="D77">
-        <v>-0.03254424724558194</v>
+        <v>0.1029642156368461</v>
       </c>
       <c r="E77">
-        <v>-0.1626680236015271</v>
+        <v>0.03152093570487229</v>
       </c>
       <c r="F77">
-        <v>0.02223358283363238</v>
+        <v>-0.03650388063980265</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1708728473425274</v>
+        <v>-0.1097772455831303</v>
       </c>
       <c r="C78">
-        <v>-0.1643661138244603</v>
+        <v>-0.04370299780129883</v>
       </c>
       <c r="D78">
-        <v>0.171080834017716</v>
+        <v>0.1192995672612016</v>
       </c>
       <c r="E78">
-        <v>-0.2322230168712525</v>
+        <v>0.09006511963075675</v>
       </c>
       <c r="F78">
-        <v>0.5546253569154767</v>
+        <v>-0.07046002249275157</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.128879420584601</v>
+        <v>-0.1631269081426392</v>
       </c>
       <c r="C79">
-        <v>-0.08756764906995164</v>
+        <v>-0.02011923799918021</v>
       </c>
       <c r="D79">
-        <v>0.0102104733567908</v>
+        <v>0.02113494580495348</v>
       </c>
       <c r="E79">
-        <v>0.02462507610882402</v>
+        <v>0.04951634277141492</v>
       </c>
       <c r="F79">
-        <v>-0.03530567826714502</v>
+        <v>-0.00428503925411516</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07397224437399122</v>
+        <v>-0.08061766570617583</v>
       </c>
       <c r="C80">
-        <v>-0.0537624657504133</v>
+        <v>0.0008686769426605946</v>
       </c>
       <c r="D80">
-        <v>-0.0821223794146177</v>
+        <v>0.05747618387509668</v>
       </c>
       <c r="E80">
-        <v>-0.05138880315539228</v>
+        <v>0.03077088726298868</v>
       </c>
       <c r="F80">
-        <v>-0.06072322820864343</v>
+        <v>0.01122293074534502</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1254206997734069</v>
+        <v>-0.1226923936943556</v>
       </c>
       <c r="C81">
-        <v>-0.07240666364284572</v>
+        <v>-0.03002039326803738</v>
       </c>
       <c r="D81">
-        <v>0.007865858782086052</v>
+        <v>0.02140090186485208</v>
       </c>
       <c r="E81">
-        <v>-0.04799667084009412</v>
+        <v>0.06025946505014683</v>
       </c>
       <c r="F81">
-        <v>-0.05097890141118611</v>
+        <v>0.003443463752462568</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1209170384376439</v>
+        <v>-0.1621404193835073</v>
       </c>
       <c r="C82">
-        <v>-0.06329441758217186</v>
+        <v>-0.02045816889784073</v>
       </c>
       <c r="D82">
-        <v>-0.008288230331403659</v>
+        <v>0.01858522373337702</v>
       </c>
       <c r="E82">
-        <v>0.02965533515750102</v>
+        <v>0.03649769482468992</v>
       </c>
       <c r="F82">
-        <v>-0.09690940870950286</v>
+        <v>-0.05391469745009155</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07840551508453385</v>
+        <v>-0.06634963756840592</v>
       </c>
       <c r="C83">
-        <v>-0.09076309710596868</v>
+        <v>-0.004474517656836192</v>
       </c>
       <c r="D83">
-        <v>-0.01952678820420476</v>
+        <v>0.04745393271353622</v>
       </c>
       <c r="E83">
-        <v>-0.008105431478892852</v>
+        <v>0.003010218718698726</v>
       </c>
       <c r="F83">
-        <v>-0.1001540799800484</v>
+        <v>0.03759976433426484</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05048451395124127</v>
+        <v>-0.06118975977295455</v>
       </c>
       <c r="C84">
-        <v>0.07017616185302307</v>
+        <v>-0.01171189059515991</v>
       </c>
       <c r="D84">
-        <v>-0.04436594163330044</v>
+        <v>0.06070811148426698</v>
       </c>
       <c r="E84">
-        <v>-0.06341597955703837</v>
+        <v>-0.003745587379387245</v>
       </c>
       <c r="F84">
-        <v>0.2206641725244915</v>
+        <v>-0.01489130173197106</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.117826816558624</v>
+        <v>-0.1380153914640086</v>
       </c>
       <c r="C85">
-        <v>-0.05444414457545468</v>
+        <v>-0.0255361188045539</v>
       </c>
       <c r="D85">
-        <v>-0.001691472613103347</v>
+        <v>0.01651416902811055</v>
       </c>
       <c r="E85">
-        <v>0.03201794365706726</v>
+        <v>0.04092838869003743</v>
       </c>
       <c r="F85">
-        <v>-0.0561430221585306</v>
+        <v>-0.04079630526076389</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08648584573034854</v>
+        <v>-0.09994547988276709</v>
       </c>
       <c r="C86">
-        <v>-0.02105727950795301</v>
+        <v>0.006877574458640766</v>
       </c>
       <c r="D86">
-        <v>0.03531060651112932</v>
+        <v>0.01727669043240715</v>
       </c>
       <c r="E86">
-        <v>0.0719091841528175</v>
+        <v>0.1284061346114811</v>
       </c>
       <c r="F86">
-        <v>0.5899789300994642</v>
+        <v>0.828007170781681</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1211325999276699</v>
+        <v>-0.1004005348525552</v>
       </c>
       <c r="C87">
-        <v>-0.07701271163497761</v>
+        <v>-0.0259415006919739</v>
       </c>
       <c r="D87">
-        <v>0.008895491839305826</v>
+        <v>0.07213629096634318</v>
       </c>
       <c r="E87">
-        <v>-0.05628996292994962</v>
+        <v>-0.05221702168384195</v>
       </c>
       <c r="F87">
-        <v>-0.008741951921923698</v>
+        <v>-0.0946378845374661</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0562058216479288</v>
+        <v>-0.06200982040239925</v>
       </c>
       <c r="C88">
-        <v>-0.0625821159947289</v>
+        <v>-0.003433289589515517</v>
       </c>
       <c r="D88">
-        <v>-0.03666990853590366</v>
+        <v>0.05488459023581422</v>
       </c>
       <c r="E88">
-        <v>-0.01388214711585639</v>
+        <v>0.02622458684476419</v>
       </c>
       <c r="F88">
-        <v>-0.04472156541877566</v>
+        <v>-0.006492841364762402</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2367299647984859</v>
+        <v>-0.1317730007069544</v>
       </c>
       <c r="C89">
-        <v>0.3636106799258754</v>
+        <v>-0.004651612169144119</v>
       </c>
       <c r="D89">
-        <v>0.04010690567653837</v>
+        <v>-0.2712034900337065</v>
       </c>
       <c r="E89">
-        <v>-0.0004867597718127593</v>
+        <v>-0.09207257881212211</v>
       </c>
       <c r="F89">
-        <v>0.04862681030188638</v>
+        <v>-0.0341909607934277</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1592377104495403</v>
+        <v>-0.1424095724125604</v>
       </c>
       <c r="C90">
-        <v>0.2568305126147589</v>
+        <v>-0.02108746975974947</v>
       </c>
       <c r="D90">
-        <v>-0.0189376842759294</v>
+        <v>-0.2714950097262583</v>
       </c>
       <c r="E90">
-        <v>-0.008077507487504307</v>
+        <v>-0.1053648846452695</v>
       </c>
       <c r="F90">
-        <v>-0.02095250631389469</v>
+        <v>-0.03678490650998851</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07264520070083776</v>
+        <v>-0.1168062304963492</v>
       </c>
       <c r="C91">
-        <v>-0.07245450691157722</v>
+        <v>-0.01613103064888477</v>
       </c>
       <c r="D91">
-        <v>-0.001532018358215753</v>
+        <v>-0.003039144426876716</v>
       </c>
       <c r="E91">
-        <v>0.005880417736420665</v>
+        <v>0.05915099581265981</v>
       </c>
       <c r="F91">
-        <v>0.006694196090713598</v>
+        <v>0.03132261680906864</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1822395761742419</v>
+        <v>-0.1447989423921274</v>
       </c>
       <c r="C92">
-        <v>0.292683793287974</v>
+        <v>-0.01253220167537054</v>
       </c>
       <c r="D92">
-        <v>0.01906872608920979</v>
+        <v>-0.3052590448714297</v>
       </c>
       <c r="E92">
-        <v>-0.08324561035651554</v>
+        <v>-0.1019093908448324</v>
       </c>
       <c r="F92">
-        <v>0.01225656476559993</v>
+        <v>-0.02725505043004624</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1766394346535001</v>
+        <v>-0.1464867587030413</v>
       </c>
       <c r="C93">
-        <v>0.2978794969309561</v>
+        <v>-0.01771583198087416</v>
       </c>
       <c r="D93">
-        <v>-0.05057610733459356</v>
+        <v>-0.2761315516551585</v>
       </c>
       <c r="E93">
-        <v>-0.03080519516103864</v>
+        <v>-0.07249190945672836</v>
       </c>
       <c r="F93">
-        <v>-0.0115903700661649</v>
+        <v>-0.0271312502964314</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1166184371336915</v>
+        <v>-0.1337975104470056</v>
       </c>
       <c r="C94">
-        <v>-0.08588094407137721</v>
+        <v>-0.02373092392579243</v>
       </c>
       <c r="D94">
-        <v>0.01373708030649966</v>
+        <v>0.04815284152994209</v>
       </c>
       <c r="E94">
-        <v>0.03873901585074718</v>
+        <v>0.06232486696060726</v>
       </c>
       <c r="F94">
-        <v>-0.03781108174878024</v>
+        <v>-0.02661611395133612</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1309459087567625</v>
+        <v>-0.1269274053204864</v>
       </c>
       <c r="C95">
-        <v>-0.07396983675344103</v>
+        <v>-0.006293387573619194</v>
       </c>
       <c r="D95">
-        <v>0.01022824061002236</v>
+        <v>0.08914135299774704</v>
       </c>
       <c r="E95">
-        <v>-0.07626395800133665</v>
+        <v>0.04167132343044755</v>
       </c>
       <c r="F95">
-        <v>0.1138932158443041</v>
+        <v>0.009560367772033087</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.0001285269530274091</v>
+        <v>-0.09487385212480622</v>
       </c>
       <c r="C96">
-        <v>-0.001717630398364458</v>
+        <v>0.9894540325363962</v>
       </c>
       <c r="D96">
-        <v>-0.0002269986000343627</v>
+        <v>-0.01515587712581926</v>
       </c>
       <c r="E96">
-        <v>0.0006742141595315576</v>
+        <v>0.0596971434491011</v>
       </c>
       <c r="F96">
-        <v>0.002325154032512494</v>
+        <v>-0.04976287018403909</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1209043542993354</v>
+        <v>-0.1880233925118135</v>
       </c>
       <c r="C97">
-        <v>0.02322499476392867</v>
+        <v>0.01252128479718625</v>
       </c>
       <c r="D97">
-        <v>0.02676734901207262</v>
+        <v>-0.01249668668195275</v>
       </c>
       <c r="E97">
-        <v>-0.1563910387216337</v>
+        <v>0.01654399918639988</v>
       </c>
       <c r="F97">
-        <v>-0.2781707047839941</v>
+        <v>0.1772819767962856</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2491156078563084</v>
+        <v>-0.2065985517807282</v>
       </c>
       <c r="C98">
-        <v>-0.0953738366380197</v>
+        <v>-0.006948532265685147</v>
       </c>
       <c r="D98">
-        <v>0.07828059269229844</v>
+        <v>0.01353207436888541</v>
       </c>
       <c r="E98">
-        <v>0.2794672071257884</v>
+        <v>-0.0905322351636338</v>
       </c>
       <c r="F98">
-        <v>0.00829442371260908</v>
+        <v>0.136066486762435</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.06840227011830263</v>
+        <v>-0.05791950509486708</v>
       </c>
       <c r="C99">
-        <v>-0.06271660711031227</v>
+        <v>0.002950760727634879</v>
       </c>
       <c r="D99">
-        <v>0.00945608317296116</v>
+        <v>0.03366023635599699</v>
       </c>
       <c r="E99">
-        <v>0.03528330248377776</v>
+        <v>0.02681044756376987</v>
       </c>
       <c r="F99">
-        <v>0.003399744314663194</v>
+        <v>-0.004261963893855605</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1247405668348066</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04724949267329994</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3279625325098823</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9040243662343619</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.05382756605755056</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03620446153801085</v>
+        <v>-0.02728491212144613</v>
       </c>
       <c r="C101">
-        <v>-0.0342283591699342</v>
+        <v>-0.00936913313382404</v>
       </c>
       <c r="D101">
-        <v>-0.01672512423326604</v>
+        <v>0.02844948134824042</v>
       </c>
       <c r="E101">
-        <v>-0.05902616468370205</v>
+        <v>0.007780135138347531</v>
       </c>
       <c r="F101">
-        <v>0.003591758203372211</v>
+        <v>0.007399653457708761</v>
       </c>
     </row>
     <row r="102" spans="1:6">
